--- a/doc/message/common/DK_Testpersons_FHIR_Messages.xlsx
+++ b/doc/message/common/DK_Testpersons_FHIR_Messages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ire/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB18654-B596-9947-967D-49D7F6A152EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AB363C-2B10-0C46-BF58-AF5BFEFBFCCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5140" yWindow="980" windowWidth="26840" windowHeight="15440" xr2:uid="{16F0747C-6D6C-D742-9615-E0E092DF6D02}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="135">
   <si>
     <t>ID</t>
   </si>
@@ -431,6 +431,15 @@
   </si>
   <si>
     <t>Anvendt i testeksempler</t>
+  </si>
+  <si>
+    <t>Nej</t>
+  </si>
+  <si>
+    <t>Skal være oprettet i SUT?</t>
+  </si>
+  <si>
+    <t>Ja</t>
   </si>
 </sst>
 </file>
@@ -811,23 +820,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E88530-8A55-4B45-961C-A70DE39FCF44}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-    <col min="6" max="6" width="31.83203125" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="3" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.83203125" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,19 +847,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -860,17 +872,20 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -880,17 +895,20 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -900,17 +918,20 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -920,17 +941,20 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -940,17 +964,17 @@
       <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>28</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -960,17 +984,17 @@
       <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -980,17 +1004,17 @@
       <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1000,17 +1024,17 @@
       <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>41</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1020,17 +1044,17 @@
       <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>44</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>45</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1040,17 +1064,17 @@
       <c r="C11" t="s">
         <v>48</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>49</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1060,17 +1084,17 @@
       <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>52</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>53</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1080,17 +1104,17 @@
       <c r="C13" t="s">
         <v>56</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>57</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>58</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1100,17 +1124,20 @@
       <c r="C14" t="s">
         <v>61</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" t="s">
         <v>32</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>62</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1120,17 +1147,17 @@
       <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>52</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>66</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1140,17 +1167,17 @@
       <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>69</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1160,17 +1187,17 @@
       <c r="C17" t="s">
         <v>72</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>32</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>73</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1180,17 +1207,17 @@
       <c r="C18" t="s">
         <v>76</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>77</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>78</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1200,17 +1227,17 @@
       <c r="C19" t="s">
         <v>81</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>77</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>82</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1220,17 +1247,17 @@
       <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>18</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>85</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1240,17 +1267,17 @@
       <c r="C21" t="s">
         <v>88</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>89</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>90</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1260,17 +1287,17 @@
       <c r="C22" t="s">
         <v>72</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>93</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>94</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1280,17 +1307,17 @@
       <c r="C23" t="s">
         <v>97</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>52</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>98</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1300,17 +1327,17 @@
       <c r="C24" t="s">
         <v>56</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>44</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>101</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1320,17 +1347,17 @@
       <c r="C25" t="s">
         <v>31</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>13</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>104</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1340,17 +1367,17 @@
       <c r="C26" t="s">
         <v>107</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>32</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>108</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1360,17 +1387,17 @@
       <c r="C27" t="s">
         <v>111</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>32</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>112</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1380,17 +1407,17 @@
       <c r="C28" t="s">
         <v>56</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>32</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>114</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1400,17 +1427,17 @@
       <c r="C29" t="s">
         <v>116</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>77</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>117</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1420,17 +1447,17 @@
       <c r="C30" t="s">
         <v>119</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>57</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>120</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1440,17 +1467,17 @@
       <c r="C31" t="s">
         <v>51</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>52</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>122</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1460,18 +1487,18 @@
       <c r="C32" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" t="s">
+      <c r="E32" s="6"/>
+      <c r="F32" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="G32" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1481,13 +1508,13 @@
       <c r="C33" t="s">
         <v>128</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>130</v>
       </c>
     </row>
